--- a/Approximationen/Kühlturm Kosten.xlsx
+++ b/Approximationen/Kühlturm Kosten.xlsx
@@ -43,48 +43,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Rückkühlung: offenes RKW Bundesministerium</t>
-  </si>
-  <si>
-    <t>kW Abwärme</t>
-  </si>
-  <si>
-    <t>EUR/kW</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>kEUR</t>
-  </si>
-  <si>
-    <t>Fit Rückkühler</t>
-  </si>
-  <si>
-    <t>Fehlerquadrat</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>a*Q^b+c</t>
-  </si>
-  <si>
-    <t>Summer Fehlerquadrate</t>
-  </si>
-  <si>
-    <t>offener Kühlturm: Preisatlas</t>
   </si>
   <si>
     <t>kW Kühlleistung</t>
   </si>
   <si>
     <t>bis hier lagen Daten vor</t>
+  </si>
+  <si>
+    <t>K= 37,419⋅Q [kW]+ 312,93</t>
+  </si>
+  <si>
+    <t>Trockenkühler in Sternschaltung (Typ HD): Preisatlas</t>
   </si>
 </sst>
 </file>
@@ -176,45 +149,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -224,45 +158,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>10.588160770584228</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.007184689272279</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.617672776424619</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44.085922265568378</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.188245260296565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.820410402148918</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.925182270201454</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35.556741006010419</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52.322724740651076</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60.333783208617604</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>90.808030109683187</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>126.60462726587996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>160.75982753720942</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -335,40 +230,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.3171298715317321</c:v>
+                  <c:v>2.1838799999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4224380067305411</c:v>
+                  <c:v>9.6676800000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.908648457844826</c:v>
+                  <c:v>19.02243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.416795414669583</c:v>
+                  <c:v>28.377179999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.933754508079883</c:v>
+                  <c:v>37.731929999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.455482920411718</c:v>
+                  <c:v>47.086679999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.980200167216069</c:v>
+                  <c:v>56.44142999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.035218182898042</c:v>
+                  <c:v>75.150929999999988</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80.157440811492322</c:v>
+                  <c:v>112.56992999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>132.42307757243574</c:v>
+                  <c:v>187.40792999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>197.77129494787698</c:v>
+                  <c:v>280.95542999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>263.12755278932104</c:v>
+                  <c:v>374.50292999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,45 +297,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10000</c:v>
-                </c:pt>
                 <c:pt idx="14" formatCode="General">
                   <c:v>50</c:v>
                 </c:pt>
@@ -486,103 +342,63 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>10.588160770584228</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.007184689272279</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.617672776424619</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44.085922265568378</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.188245260296565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.820410402148918</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.925182270201454</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35.556741006010419</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52.322724740651076</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60.333783208617604</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>90.808030109683187</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>126.60462726587996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>160.75982753720942</c:v>
-                </c:pt>
                 <c:pt idx="14" formatCode="0.00">
-                  <c:v>3.3171298715317321</c:v>
+                  <c:v>2.1838799999999998</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>8.4224380067305411</c:v>
+                  <c:v>9.6676800000000007</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00">
-                  <c:v>14.908648457844826</c:v>
+                  <c:v>19.02243</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00">
-                  <c:v>21.416795414669583</c:v>
+                  <c:v>28.377179999999996</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
-                  <c:v>27.933754508079883</c:v>
+                  <c:v>37.731929999999998</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00">
-                  <c:v>34.455482920411718</c:v>
+                  <c:v>47.086679999999994</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00">
-                  <c:v>40.980200167216069</c:v>
+                  <c:v>56.44142999999999</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
-                  <c:v>54.035218182898042</c:v>
+                  <c:v>75.150929999999988</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00">
-                  <c:v>80.157440811492322</c:v>
+                  <c:v>112.56992999999999</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00">
-                  <c:v>132.42307757243574</c:v>
+                  <c:v>187.40792999999996</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00">
-                  <c:v>197.77129494787698</c:v>
+                  <c:v>280.95542999999998</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00">
-                  <c:v>263.12755278932104</c:v>
+                  <c:v>374.50292999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="53839744"/>
-        <c:axId val="53854208"/>
+        <c:axId val="71375872"/>
+        <c:axId val="71402240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53839744"/>
+        <c:axId val="71375872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53854208"/>
+        <c:crossAx val="71402240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53854208"/>
+        <c:axId val="71402240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +406,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53839744"/>
+        <c:crossAx val="71375872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -600,7 +416,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -626,7 +442,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -910,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:I40"/>
+  <dimension ref="A5:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -926,231 +742,62 @@
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>5.5403307545204498E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>200</v>
-      </c>
-      <c r="B7">
-        <v>54</v>
-      </c>
-      <c r="C7">
-        <f>B7*A7/1000</f>
-        <v>10.8</v>
-      </c>
-      <c r="D7">
-        <f>$I$6*A7^$I$7+$I$8</f>
-        <v>10.588160770584228</v>
-      </c>
-      <c r="E7">
-        <f>(C7-D7)^2</f>
-        <v>4.4875859119468474E-2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>0.86205343355723707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>500</v>
-      </c>
-      <c r="B8">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <f>B8*A8/1000</f>
-        <v>16.5</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D9" si="0">$I$6*A8^$I$7+$I$8</f>
-        <v>17.007184689272279</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E10" si="1">(C8-D8)^2</f>
-        <v>0.25723630903221811</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <v>5.2530124068344382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B9">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <f>B9*A9/1000</f>
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>26.617672776424619</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.146174105886859</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <f>SUM(E7:E10)</f>
-        <v>0.45566890975894847</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B10">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <f>B10*A10/1000</f>
-        <v>44</v>
-      </c>
-      <c r="D10">
-        <f>$I$6*A10^$I$7+$I$8</f>
-        <v>44.085922265568378</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>7.3826357204028773E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    <row r="5" spans="1:4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D20" si="2">$I$6*A12^$I$7+$I$8</f>
-        <v>8.188245260296565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>300</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>12.820410402148918</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
-        <v>750</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>21.925182270201454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>35.556741006010419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>52.322724740651076</v>
-      </c>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D17">
-        <f>$I$6*A17^$I$7+$I$8</f>
-        <v>60.333783208617604</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>90.808030109683187</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>7500</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>126.60462726587996</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D20">
-        <f>$I$6*A20^$I$7+$I$8</f>
-        <v>160.75982753720942</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1158,8 +805,11 @@
         <v>50</v>
       </c>
       <c r="B29" s="1">
-        <f>(2348.2*A29^(-1.0398)+26.15)*A29/1000</f>
-        <v>3.3171298715317321</v>
+        <f>(37.419*A29+312.93)/1000</f>
+        <v>2.1838799999999998</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1167,8 +817,8 @@
         <v>250</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" ref="B30:B40" si="3">(2348.2*A30^(-1.0398)+26.15)*A30/1000</f>
-        <v>8.4224380067305411</v>
+        <f t="shared" ref="B30:B40" si="0">(37.419*A30+312.93)/1000</f>
+        <v>9.6676800000000007</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1176,8 +826,8 @@
         <v>500</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="3"/>
-        <v>14.908648457844826</v>
+        <f t="shared" si="0"/>
+        <v>19.02243</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1185,8 +835,8 @@
         <v>750</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="3"/>
-        <v>21.416795414669583</v>
+        <f t="shared" si="0"/>
+        <v>28.377179999999996</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1194,8 +844,8 @@
         <v>1000</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="3"/>
-        <v>27.933754508079883</v>
+        <f t="shared" si="0"/>
+        <v>37.731929999999998</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1203,11 +853,11 @@
         <v>1250</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="3"/>
-        <v>34.455482920411718</v>
+        <f t="shared" si="0"/>
+        <v>47.086679999999994</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1215,8 +865,8 @@
         <v>1500</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="3"/>
-        <v>40.980200167216069</v>
+        <f t="shared" si="0"/>
+        <v>56.44142999999999</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1224,8 +874,8 @@
         <v>2000</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="3"/>
-        <v>54.035218182898042</v>
+        <f t="shared" si="0"/>
+        <v>75.150929999999988</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1233,8 +883,8 @@
         <v>3000</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="3"/>
-        <v>80.157440811492322</v>
+        <f t="shared" si="0"/>
+        <v>112.56992999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1242,8 +892,8 @@
         <v>5000</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="3"/>
-        <v>132.42307757243574</v>
+        <f t="shared" si="0"/>
+        <v>187.40792999999996</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1251,8 +901,8 @@
         <v>7500</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="3"/>
-        <v>197.77129494787698</v>
+        <f t="shared" si="0"/>
+        <v>280.95542999999998</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1260,8 +910,8 @@
         <v>10000</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="3"/>
-        <v>263.12755278932104</v>
+        <f t="shared" si="0"/>
+        <v>374.50292999999994</v>
       </c>
     </row>
   </sheetData>
